--- a/data/georgia_census/imereti/wyaltubo/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/wyaltubo/healthcare_staff.xlsx
@@ -1377,13 +1377,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1DFA1CB-B094-465C-AEDE-34EAB6C4BF5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4728F7DE-21F8-40E5-B807-1AC70F4368B6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{893B9847-3E43-4DE0-8461-E350C1DC88CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2DAB6BC-9065-475A-871F-3BAB53217B09}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A4DFFD8-E4AD-4DD5-A9D0-623463D587F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4502C539-D039-47CA-923F-31B4B02AAFD3}"/>
 </file>